--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1893.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1893.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.216170679097141</v>
+        <v>1.273058891296387</v>
       </c>
       <c r="B1">
-        <v>2.928597201399841</v>
+        <v>1.942742228507996</v>
       </c>
       <c r="C1">
-        <v>3.850976119955265</v>
+        <v>2.631101131439209</v>
       </c>
       <c r="D1">
-        <v>2.489095756061077</v>
+        <v>3.749205112457275</v>
       </c>
       <c r="E1">
-        <v>0.9889046840078163</v>
+        <v>1.08298647403717</v>
       </c>
     </row>
   </sheetData>
